--- a/Excel/ships_nationalities.xlsx
+++ b/Excel/ships_nationalities.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E29E9C-26E2-4DD5-A66F-E44768A027E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{AC49ABF0-85DD-48F0-9B64-B2DD1F7131F0}"/>
+    <workbookView xWindow="3770" yWindow="3770" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="36">
   <si>
     <t>ship_id</t>
   </si>
@@ -44,12 +38,111 @@
   </si>
   <si>
     <t>start_possesion_date</t>
+  </si>
+  <si>
+    <t>Empire moghol</t>
+  </si>
+  <si>
+    <t>Dynastie Qing</t>
+  </si>
+  <si>
+    <t>Saint-Empire romain germanique</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Empire ottoman</t>
+  </si>
+  <si>
+    <t>Empire espagnol</t>
+  </si>
+  <si>
+    <t>Royaume de France</t>
+  </si>
+  <si>
+    <t>Tsarat de Russie</t>
+  </si>
+  <si>
+    <t>Dynastie Joseon</t>
+  </si>
+  <si>
+    <t>Perse</t>
+  </si>
+  <si>
+    <t>Monarchie de Habsbourg</t>
+  </si>
+  <si>
+    <t>Angleterre</t>
+  </si>
+  <si>
+    <t>République des Deux Nations</t>
+  </si>
+  <si>
+    <t>Dai Viet</t>
+  </si>
+  <si>
+    <t>Empire chérifien</t>
+  </si>
+  <si>
+    <t>Népal</t>
+  </si>
+  <si>
+    <t>Suède</t>
+  </si>
+  <si>
+    <t>Siam</t>
+  </si>
+  <si>
+    <t>Royaume de Portugal</t>
+  </si>
+  <si>
+    <t>République de Venise</t>
+  </si>
+  <si>
+    <t>Province-Unies</t>
+  </si>
+  <si>
+    <t>Cambodge</t>
+  </si>
+  <si>
+    <t>Brandebourg-Prusse</t>
+  </si>
+  <si>
+    <t>Etats de Savoie</t>
+  </si>
+  <si>
+    <t>Danemark-Norvège</t>
+  </si>
+  <si>
+    <t>Confédération Suisse</t>
+  </si>
+  <si>
+    <t>Khanat dzoungar</t>
+  </si>
+  <si>
+    <t>Grand-duché de Toscane</t>
+  </si>
+  <si>
+    <t>Royaume du Kongo</t>
+  </si>
+  <si>
+    <t>Lan Xang</t>
+  </si>
+  <si>
+    <t>Royaume de Ryukyu</t>
+  </si>
+  <si>
+    <t>Ordre de Saint-Jean de Jérusalem</t>
+  </si>
+  <si>
+    <t>1700-01-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,21 +480,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207185D9-1DA3-43CA-8905-D3BD2B329169}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -414,6 +507,1766 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>191</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>195</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>204</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>211</v>
+      </c>
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>224</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>231</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>234</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>235</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>241</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>243</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>244</v>
+      </c>
+      <c r="B120" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>245</v>
+      </c>
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>251</v>
+      </c>
+      <c r="B122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>253</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>254</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>255</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>264</v>
+      </c>
+      <c r="B130" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>265</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>271</v>
+      </c>
+      <c r="B132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>273</v>
+      </c>
+      <c r="B134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>274</v>
+      </c>
+      <c r="B135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>275</v>
+      </c>
+      <c r="B136" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>281</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>283</v>
+      </c>
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>284</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>285</v>
+      </c>
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>291</v>
+      </c>
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>292</v>
+      </c>
+      <c r="B143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>293</v>
+      </c>
+      <c r="B144" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>294</v>
+      </c>
+      <c r="B145" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>295</v>
+      </c>
+      <c r="B146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>301</v>
+      </c>
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>303</v>
+      </c>
+      <c r="B149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>304</v>
+      </c>
+      <c r="B150" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>305</v>
+      </c>
+      <c r="B151" t="s">
+        <v>32</v>
+      </c>
+      <c r="C151" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>311</v>
+      </c>
+      <c r="B152" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>312</v>
+      </c>
+      <c r="B153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>313</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>314</v>
+      </c>
+      <c r="B155" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>315</v>
+      </c>
+      <c r="B156" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>321</v>
+      </c>
+      <c r="B157" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>322</v>
+      </c>
+      <c r="B158" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>323</v>
+      </c>
+      <c r="B159" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>324</v>
+      </c>
+      <c r="B160" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>325</v>
+      </c>
+      <c r="B161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/ships_nationalities.xlsx
+++ b/Excel/ships_nationalities.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="37">
   <si>
     <t>ship_id</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>1700-01-01</t>
+  </si>
+  <si>
+    <t>1700-07-07</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,9 +491,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
       <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
@@ -2267,6 +2270,17 @@
         <v>35</v>
       </c>
     </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>55</v>
+      </c>
+      <c r="B162" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/ships_nationalities.xlsx
+++ b/Excel/ships_nationalities.xlsx
@@ -76,30 +76,15 @@
     <t>Angleterre</t>
   </si>
   <si>
-    <t>République des Deux Nations</t>
-  </si>
-  <si>
     <t>Dai Viet</t>
   </si>
   <si>
-    <t>Empire chérifien</t>
-  </si>
-  <si>
-    <t>Népal</t>
-  </si>
-  <si>
-    <t>Suède</t>
-  </si>
-  <si>
     <t>Siam</t>
   </si>
   <si>
     <t>Royaume de Portugal</t>
   </si>
   <si>
-    <t>République de Venise</t>
-  </si>
-  <si>
     <t>Province-Unies</t>
   </si>
   <si>
@@ -112,18 +97,9 @@
     <t>Etats de Savoie</t>
   </si>
   <si>
-    <t>Danemark-Norvège</t>
-  </si>
-  <si>
-    <t>Confédération Suisse</t>
-  </si>
-  <si>
     <t>Khanat dzoungar</t>
   </si>
   <si>
-    <t>Grand-duché de Toscane</t>
-  </si>
-  <si>
     <t>Royaume du Kongo</t>
   </si>
   <si>
@@ -133,13 +109,37 @@
     <t>Royaume de Ryukyu</t>
   </si>
   <si>
-    <t>Ordre de Saint-Jean de Jérusalem</t>
-  </si>
-  <si>
     <t>1700-01-01</t>
   </si>
   <si>
     <t>1700-07-07</t>
+  </si>
+  <si>
+    <t>Ordre de Saint-Jean de Jerusalem</t>
+  </si>
+  <si>
+    <t>Grand-duche de Toscane</t>
+  </si>
+  <si>
+    <t>Confederation Suisse</t>
+  </si>
+  <si>
+    <t>Danemark-Norvege</t>
+  </si>
+  <si>
+    <t>Republique de Venise</t>
+  </si>
+  <si>
+    <t>Suede</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Empire cherifien</t>
+  </si>
+  <si>
+    <t>Republique des Deux Nations</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -551,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -584,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -595,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -650,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -705,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -716,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -727,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -738,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -749,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -771,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -782,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -815,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -837,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -848,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -859,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -870,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -881,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -903,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -914,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -925,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -947,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -958,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -969,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -980,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1002,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1013,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1035,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1046,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1068,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1079,7 +1079,7 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1090,7 +1090,7 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1101,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1112,7 +1112,7 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1123,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1145,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1156,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1167,7 +1167,7 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1175,10 +1175,10 @@
         <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1186,10 +1186,10 @@
         <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1197,10 +1197,10 @@
         <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1208,10 +1208,10 @@
         <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1219,10 +1219,10 @@
         <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1230,10 +1230,10 @@
         <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1241,10 +1241,10 @@
         <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1252,10 +1252,10 @@
         <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1263,10 +1263,10 @@
         <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1274,10 +1274,10 @@
         <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -1285,10 +1285,10 @@
         <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1296,10 +1296,10 @@
         <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1307,10 +1307,10 @@
         <v>153</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1318,10 +1318,10 @@
         <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1329,10 +1329,10 @@
         <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1340,10 +1340,10 @@
         <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1351,10 +1351,10 @@
         <v>162</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -1362,10 +1362,10 @@
         <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -1373,10 +1373,10 @@
         <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1384,10 +1384,10 @@
         <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -1395,10 +1395,10 @@
         <v>171</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -1406,10 +1406,10 @@
         <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -1417,10 +1417,10 @@
         <v>173</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -1428,10 +1428,10 @@
         <v>174</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -1439,10 +1439,10 @@
         <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -1450,10 +1450,10 @@
         <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -1461,10 +1461,10 @@
         <v>182</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1472,10 +1472,10 @@
         <v>183</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -1483,10 +1483,10 @@
         <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -1494,10 +1494,10 @@
         <v>185</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -1505,10 +1505,10 @@
         <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -1516,10 +1516,10 @@
         <v>192</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -1527,10 +1527,10 @@
         <v>193</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -1538,10 +1538,10 @@
         <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -1549,10 +1549,10 @@
         <v>195</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -1560,10 +1560,10 @@
         <v>201</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -1571,10 +1571,10 @@
         <v>202</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -1582,10 +1582,10 @@
         <v>203</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -1593,10 +1593,10 @@
         <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -1604,10 +1604,10 @@
         <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -1615,10 +1615,10 @@
         <v>211</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -1626,10 +1626,10 @@
         <v>212</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -1637,10 +1637,10 @@
         <v>213</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -1648,10 +1648,10 @@
         <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -1659,10 +1659,10 @@
         <v>215</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -1670,10 +1670,10 @@
         <v>221</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -1681,10 +1681,10 @@
         <v>222</v>
       </c>
       <c r="B108" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -1692,10 +1692,10 @@
         <v>223</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -1703,10 +1703,10 @@
         <v>224</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -1714,10 +1714,10 @@
         <v>225</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -1725,10 +1725,10 @@
         <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -1736,10 +1736,10 @@
         <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -1747,10 +1747,10 @@
         <v>233</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -1758,10 +1758,10 @@
         <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -1769,10 +1769,10 @@
         <v>235</v>
       </c>
       <c r="B116" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -1780,10 +1780,10 @@
         <v>241</v>
       </c>
       <c r="B117" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -1791,10 +1791,10 @@
         <v>242</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -1802,10 +1802,10 @@
         <v>243</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -1813,10 +1813,10 @@
         <v>244</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -1824,10 +1824,10 @@
         <v>245</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -1835,10 +1835,10 @@
         <v>251</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -1846,10 +1846,10 @@
         <v>252</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -1857,10 +1857,10 @@
         <v>253</v>
       </c>
       <c r="B124" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -1868,10 +1868,10 @@
         <v>254</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -1879,10 +1879,10 @@
         <v>255</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -1890,10 +1890,10 @@
         <v>261</v>
       </c>
       <c r="B127" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -1901,10 +1901,10 @@
         <v>262</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -1912,10 +1912,10 @@
         <v>263</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -1923,10 +1923,10 @@
         <v>264</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -1934,10 +1934,10 @@
         <v>265</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -1945,10 +1945,10 @@
         <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -1956,10 +1956,10 @@
         <v>272</v>
       </c>
       <c r="B133" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -1967,10 +1967,10 @@
         <v>273</v>
       </c>
       <c r="B134" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -1978,10 +1978,10 @@
         <v>274</v>
       </c>
       <c r="B135" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -1989,10 +1989,10 @@
         <v>275</v>
       </c>
       <c r="B136" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -2000,10 +2000,10 @@
         <v>281</v>
       </c>
       <c r="B137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -2011,10 +2011,10 @@
         <v>282</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -2022,10 +2022,10 @@
         <v>283</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -2033,10 +2033,10 @@
         <v>284</v>
       </c>
       <c r="B140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -2044,10 +2044,10 @@
         <v>285</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -2055,10 +2055,10 @@
         <v>291</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -2066,10 +2066,10 @@
         <v>292</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -2077,10 +2077,10 @@
         <v>293</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -2088,10 +2088,10 @@
         <v>294</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -2099,10 +2099,10 @@
         <v>295</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -2110,10 +2110,10 @@
         <v>301</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -2121,10 +2121,10 @@
         <v>302</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -2132,10 +2132,10 @@
         <v>303</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -2143,10 +2143,10 @@
         <v>304</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -2154,10 +2154,10 @@
         <v>305</v>
       </c>
       <c r="B151" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -2165,10 +2165,10 @@
         <v>311</v>
       </c>
       <c r="B152" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -2176,10 +2176,10 @@
         <v>312</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -2187,10 +2187,10 @@
         <v>313</v>
       </c>
       <c r="B154" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -2198,10 +2198,10 @@
         <v>314</v>
       </c>
       <c r="B155" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -2209,10 +2209,10 @@
         <v>315</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -2220,10 +2220,10 @@
         <v>321</v>
       </c>
       <c r="B157" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -2231,10 +2231,10 @@
         <v>322</v>
       </c>
       <c r="B158" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -2242,10 +2242,10 @@
         <v>323</v>
       </c>
       <c r="B159" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -2253,10 +2253,10 @@
         <v>324</v>
       </c>
       <c r="B160" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -2264,10 +2264,10 @@
         <v>325</v>
       </c>
       <c r="B161" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -2275,10 +2275,10 @@
         <v>55</v>
       </c>
       <c r="B162" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ships_nationalities.xlsx
+++ b/Excel/ships_nationalities.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="38">
   <si>
     <t>ship_id</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Republique des Deux Nations</t>
+  </si>
+  <si>
+    <t>1700-02-13</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2281,6 +2284,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
